--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85871DE3-92E8-4878-B146-4D30492C306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675FD5D-5C72-4974-8908-666DD391D850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9373" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9343" uniqueCount="3316">
   <si>
     <t>统计级别</t>
   </si>
@@ -10165,33 +10165,6 @@
   <si>
     <t>黔东南苗族侗族自治州</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从1开始累计</t>
-  </si>
-  <si>
-    <t>格式为“YYYY/MM/DD HH:MM”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写，不确定的地区写“地区待确认”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写</t>
-  </si>
-  <si>
-    <t>不能填0</t>
-  </si>
-  <si>
-    <t>所有内容，包括标题</t>
-  </si>
-  <si>
-    <t>值为“手动”、“自动”</t>
-  </si>
-  <si>
-    <t>值为“未核查”、“已核查”</t>
-  </si>
-  <si>
-    <t>值为“核查通过”、“核查未通过”</t>
   </si>
   <si>
     <t>序号</t>
@@ -10300,30 +10273,6 @@
     <rPh sb="0" eb="1">
       <t>zhong'guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能填0，正数核增，负数核减</t>
-    <rPh sb="0" eb="1">
-      <t>bu'neng'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>he'zeng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'shu'he'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照规范文件填写，包含直辖市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为“国家级”、“省级”、“城市级”、“区县级”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10874,10 +10823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10921,390 +10870,332 @@
         <v>3251</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3297</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>3252</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>3253</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3254</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>3296</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>3253</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>3254</v>
+        <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>3255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>3255</v>
+        <v>3261</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>3295</v>
+        <v>3263</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>3295</v>
-      </c>
-      <c r="S1" s="16"/>
+        <v>3264</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3265</v>
+      </c>
       <c r="T1" s="16" t="s">
-        <v>3252</v>
+        <v>3266</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>3256</v>
-      </c>
-      <c r="V1" s="16"/>
+        <v>3267</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="W1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+        <v>3268</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>3269</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>3270</v>
+      </c>
       <c r="Z1" s="16" t="s">
-        <v>3252</v>
+        <v>3271</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AB1" s="16"/>
+        <v>3272</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>3273</v>
+      </c>
       <c r="AC1" s="16" t="s">
-        <v>3258</v>
+        <v>3274</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>3252</v>
+        <v>3275</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AF1" s="16"/>
+        <v>3276</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>3277</v>
+      </c>
       <c r="AG1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AH1" s="16"/>
+        <v>3278</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>3279</v>
+      </c>
       <c r="AI1" s="16" t="s">
-        <v>3252</v>
+        <v>4</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>3252</v>
+        <v>3280</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AL1" s="16"/>
+        <v>3281</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>3282</v>
+      </c>
       <c r="AM1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AN1" s="16"/>
-    </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43878.375</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43879.375</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3297</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
+        <v>240</v>
+      </c>
+      <c r="N2" s="12">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
+        <v>3299</v>
+      </c>
+      <c r="T2" s="15">
+        <v>43879.376388888886</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>3268</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>3269</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>3270</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>3271</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>3272</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>3274</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>3275</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>3276</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>3277</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>3278</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>3279</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>3280</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>3281</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>3282</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>3283</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>3284</v>
-      </c>
-      <c r="AE2" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43878.375</v>
+      </c>
+      <c r="D3" s="20">
+        <v>43879.375</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>3285</v>
       </c>
-      <c r="AF2" s="16" t="s">
-        <v>3286</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>3287</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>3288</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>3289</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>3290</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>3291</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3305</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43878.375</v>
-      </c>
-      <c r="D3" s="14">
-        <v>43879.375</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3309</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12">
-        <v>22</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>240</v>
-      </c>
-      <c r="N3" s="12">
-        <v>79</v>
-      </c>
-      <c r="O3" s="12">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="13">
+        <v>117</v>
+      </c>
       <c r="S3" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T3" s="15">
         <v>43879.376388888886</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="Z3" s="15"/>
+        <v>3300</v>
+      </c>
       <c r="AA3" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3327</v>
-      </c>
-      <c r="AD3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+        <v>3315</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C4" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C4" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>43879.375</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="M4" s="13">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T4" s="15">
-        <v>43879.376388888886</v>
+        <v>43879.37638883102</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>3312</v>
+        <v>3301</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C5" s="14">
+        <v>3294</v>
+      </c>
+      <c r="C5" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="20">
         <v>43879.375</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="M5" s="13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T5" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V5" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AA5" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AA5" s="13" t="s">
-        <v>3325</v>
-      </c>
       <c r="AB5" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C6" s="15">
+        <v>3295</v>
+      </c>
+      <c r="C6" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="14">
         <v>43879.375</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>35</v>
@@ -11312,134 +11203,134 @@
       <c r="G6" s="13" t="s">
         <v>152</v>
       </c>
+      <c r="H6" s="13" t="s">
+        <v>2886</v>
+      </c>
       <c r="M6" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T6" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V6" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AA6" s="13" t="s">
-        <v>3325</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>3326</v>
-      </c>
       <c r="AC6" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C7" s="14">
+        <v>3294</v>
+      </c>
+      <c r="C7" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="20">
         <v>43879.375</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>2886</v>
+        <v>94</v>
       </c>
       <c r="M7" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T7" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V7" s="13" t="s">
+        <v>3304</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AC7" s="13" t="s">
         <v>3315</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>3325</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>3326</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C8" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C8" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <v>43879.375</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="M8" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T8" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>3316</v>
+        <v>3305</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C9" s="14">
+        <v>3295</v>
+      </c>
+      <c r="C9" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="20">
         <v>43879.375</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>35</v>
@@ -11447,369 +11338,325 @@
       <c r="G9" s="13" t="s">
         <v>181</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>2908</v>
+      </c>
       <c r="M9" s="13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T9" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>3317</v>
+        <v>3306</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C10" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C10" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>43879.375</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>2908</v>
+        <v>210</v>
       </c>
       <c r="M10" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T10" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>3318</v>
+        <v>3307</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C11" s="14">
+        <v>3294</v>
+      </c>
+      <c r="C11" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="20">
         <v>43879.375</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="M11" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T11" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>3319</v>
+        <v>3308</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C12" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C12" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="14">
         <v>43879.375</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="M12" s="13">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T12" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>3320</v>
+        <v>3309</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C13" s="14">
+        <v>3294</v>
+      </c>
+      <c r="C13" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="20">
         <v>43879.375</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="M13" s="13">
         <v>25</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T13" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>3321</v>
+        <v>3310</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C14" s="15">
+        <v>3294</v>
+      </c>
+      <c r="C14" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="14">
         <v>43879.375</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="M14" s="13">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T14" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>3322</v>
+        <v>3311</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C15" s="14">
+        <v>3294</v>
+      </c>
+      <c r="C15" s="15">
         <v>43878.375</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="20">
         <v>43879.375</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="M15" s="13">
-        <v>7</v>
+        <v>3298</v>
+      </c>
+      <c r="J15" s="13">
+        <v>22</v>
+      </c>
+      <c r="N15" s="13">
+        <v>79</v>
+      </c>
+      <c r="O15" s="13">
+        <v>79</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="T15" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>3323</v>
+        <v>3312</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C16" s="15">
-        <v>43878.375</v>
-      </c>
-      <c r="D16" s="20">
-        <v>43879.375</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>3310</v>
-      </c>
-      <c r="J16" s="13">
-        <v>22</v>
-      </c>
-      <c r="N16" s="13">
-        <v>79</v>
-      </c>
-      <c r="O16" s="13">
-        <v>79</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>3311</v>
-      </c>
-      <c r="T16" s="15">
-        <v>43879.37638883102</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>3325</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>3326</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>INDIRECT($G3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11821,7 +11668,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11858,7 +11705,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3304</v>
+        <v>3292</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -11976,7 +11823,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>412</v>
@@ -12653,7 +12500,7 @@
         <v>212</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>213</v>
@@ -12771,7 +12618,7 @@
         <v>240</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>241</v>
@@ -12877,7 +12724,7 @@
         <v>264</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>265</v>
@@ -12998,7 +12845,7 @@
         <v>292</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>293</v>
@@ -13010,7 +12857,7 @@
         <v>3216</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>3243</v>
@@ -13047,7 +12894,7 @@
         <v>299</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>300</v>
@@ -13065,7 +12912,7 @@
         <v>303</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>304</v>
@@ -13098,7 +12945,7 @@
         <v>312</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>313</v>
@@ -13202,7 +13049,7 @@
         <v>336</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>337</v>
@@ -13239,10 +13086,10 @@
         <v>449</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>344</v>
@@ -13260,13 +13107,13 @@
         <v>347</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>348</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>349</v>
@@ -13333,7 +13180,7 @@
         <v>450</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>362</v>
@@ -13418,13 +13265,13 @@
         <v>379</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>380</v>
@@ -13494,7 +13341,7 @@
         <v>452</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1130</v>
@@ -13512,13 +13359,13 @@
         <v>396</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>397</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>398</v>
@@ -13533,7 +13380,7 @@
         <v>400</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>391</v>
@@ -13545,7 +13392,7 @@
         <v>3222</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -13620,19 +13467,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>415</v>
@@ -13653,7 +13500,7 @@
         <v>419</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>413</v>
@@ -13683,7 +13530,7 @@
         <v>423</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>424</v>
@@ -13722,7 +13569,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="U20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>430</v>
@@ -13743,7 +13590,7 @@
         <v>429</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN20" s="1"/>
     </row>
@@ -13764,7 +13611,7 @@
         <v>436</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>2368</v>
@@ -13806,7 +13653,7 @@
         <v>438</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN22" s="1"/>
     </row>
@@ -13824,13 +13671,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>2370</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>442</v>
@@ -13903,7 +13750,7 @@
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
@@ -14215,7 +14062,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="AA40" s="19" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="AN40" s="1"/>
     </row>
@@ -14233,7 +14080,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="AA41" s="19" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="AN41" s="1"/>
     </row>
@@ -14251,7 +14098,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="AA42" s="19" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="AN42" s="1"/>
     </row>
@@ -14269,7 +14116,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN43" s="1"/>
     </row>
@@ -55646,7 +55493,7 @@
         <v>38</v>
       </c>
       <c r="B2744" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="C2744" s="2"/>
       <c r="D2744" s="2"/>

--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675FD5D-5C72-4974-8908-666DD391D850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35D15-CB27-4D72-A19C-ACC7744BDC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10825,8 +10825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11012,7 +11012,9 @@
       <c r="J2" s="12">
         <v>22</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>5</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
         <v>240</v>
@@ -11607,6 +11609,9 @@
       </c>
       <c r="J15" s="13">
         <v>22</v>
+      </c>
+      <c r="K15" s="13">
+        <v>5</v>
       </c>
       <c r="N15" s="13">
         <v>79</v>

--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200217.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35D15-CB27-4D72-A19C-ACC7744BDC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97510FA8-4B34-4360-8EC8-CC1580603E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10313,9 +10313,6 @@
     <t>区县级</t>
   </si>
   <si>
-    <t>http://sxwjw.shaanxi.gov.cn/art/2020/2/18/art_9_68105.html</t>
-  </si>
-  <si>
     <t>陕西省</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10374,6 +10371,10 @@
   </si>
   <si>
     <t>未核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sxwjw.shaanxi.gov.cn/art/2020/2/18/art_9_68105.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10385,7 +10386,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10452,6 +10453,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10488,10 +10497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10543,9 +10553,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10825,8 +10837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11004,7 +11016,7 @@
         <v>3285</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -11028,24 +11040,24 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T2" s="15">
         <v>43879.376388888886</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>3296</v>
+      <c r="V2" s="21" t="s">
+        <v>3315</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>3315</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
@@ -11077,22 +11089,22 @@
         <v>117</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T3" s="15">
         <v>43879.376388888886</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -11121,22 +11133,22 @@
         <v>13</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T4" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -11162,25 +11174,25 @@
         <v>152</v>
       </c>
       <c r="M5" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T5" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -11212,22 +11224,22 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T6" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="AA6" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -11256,22 +11268,22 @@
         <v>8</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T7" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="AA7" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -11297,25 +11309,25 @@
         <v>181</v>
       </c>
       <c r="M8" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T8" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AA8" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AC8" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -11347,22 +11359,22 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T9" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="AA9" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -11391,22 +11403,22 @@
         <v>8</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T10" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AC10" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -11435,22 +11447,22 @@
         <v>3</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T11" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AA11" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -11479,22 +11491,22 @@
         <v>25</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T12" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -11523,22 +11535,22 @@
         <v>25</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T13" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="AA13" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -11567,22 +11579,22 @@
         <v>7</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T14" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AC14" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -11605,7 +11617,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="J15" s="13">
         <v>22</v>
@@ -11620,22 +11632,22 @@
         <v>79</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="T15" s="15">
         <v>43879.37638883102</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>3311</v>
+      </c>
+      <c r="AA15" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AB15" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>3314</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>3315</v>
       </c>
     </row>
   </sheetData>
@@ -11664,8 +11676,11 @@
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{A2E08FC6-FF95-4D25-BEF2-5DC8E8BE7F64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
